--- a/Excel2Json/Test/hero.xlsx
+++ b/Excel2Json/Test/hero.xlsx
@@ -201,118 +201,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="220">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="226">
   <si>
     <t>name</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>英雄ID</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>英雄第二类别</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>英雄头像</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>英雄模型</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>sub_type</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>head_icon</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>model</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>普工技能</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>collide_radius</t>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -328,7 +316,7 @@
       </rPr>
       <t>asic_attack</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>head_109</t>
@@ -362,18 +350,18 @@
       </rPr>
       <t>12</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>英雄缩放</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
     <t>head_103</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -389,7 +377,7 @@
       </rPr>
       <t>12</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>sprint_speed</t>
@@ -408,7 +396,7 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -424,19 +412,19 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>model_scale</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>sprint_rang</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>forbid_sprint_rang</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -452,51 +440,15 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>vector</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>active_skill</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>相克属性
@@ -564,7 +516,7 @@
       </rPr>
       <t>全能</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>head_123</t>
@@ -574,7 +526,7 @@
   </si>
   <si>
     <t>英雄全身像</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -600,7 +552,7 @@
       </rPr>
       <t>_icon</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>hero_name109</t>
@@ -619,11 +571,11 @@
   </si>
   <si>
     <t>hero_name123</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>68</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>hero_name503</t>
@@ -663,19 +615,19 @@
   </si>
   <si>
     <t>英雄对话半身像</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>talk_icon</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>Jq_hkl</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>Jq_gtx</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>1231101</t>
@@ -694,7 +646,7 @@
       </rPr>
       <t>8000101</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -800,7 +752,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>special_skill</t>
@@ -834,7 +786,7 @@
       </rPr>
       <t>10</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -850,7 +802,7 @@
       </rPr>
       <t>10</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -866,7 +818,7 @@
       </rPr>
       <t>10</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -882,7 +834,7 @@
       </rPr>
       <t>000101|123101101|123102101</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -898,7 +850,7 @@
       </rPr>
       <t>_id</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -914,7 +866,7 @@
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -930,15 +882,15 @@
       </rPr>
       <t>10</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>入场技</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -954,7 +906,7 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -970,19 +922,19 @@
       </rPr>
       <t>nter_skill</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>英雄定位描述</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>des1</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>des1_105</t>
@@ -1025,27 +977,23 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
-    <t>九头蛇_双棍</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>九头蛇_盾牌</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>碰撞半径</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>initial_rare</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1061,15 +1009,15 @@
       </rPr>
       <t>nitial_star</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>unlock_material_count</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>解锁英雄所需碎片数</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1085,35 +1033,35 @@
       </rPr>
       <t>estraint_attribute</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>1=近战；2=远程</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>attack_type</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>蜘蛛</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>美队</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>博士</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>钢铁侠</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>浣熊</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>怪物质量：击退距离*怪物质量=实际击退距离</t>
@@ -1123,12 +1071,12 @@
   </si>
   <si>
     <t>rush_speed</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>技能冲刺速度
 技能中有冲刺速度配置用</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1146,7 +1094,7 @@
       </rPr>
       <t>（目前无用）</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1162,26 +1110,23 @@
       </rPr>
       <t>vent_id_vec</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector&lt;int&gt;</t>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>Jq_hkl</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>事件技能</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>被动技能</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1207,15 +1152,15 @@
       </rPr>
       <t>active_skill</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>Friday</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>NICK FURY</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1231,7 +1176,7 @@
       </rPr>
       <t>998</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1247,7 +1192,7 @@
       </rPr>
       <t>999</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1263,7 +1208,7 @@
       </rPr>
       <t>xzs</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1279,15 +1224,15 @@
       </rPr>
       <t>nf</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>WONG</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>Jq_w</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1303,11 +1248,11 @@
       </rPr>
       <t>cap</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>Jq_sp</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1323,7 +1268,7 @@
       </rPr>
       <t>doc</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>hero_name102</t>
@@ -1342,7 +1287,7 @@
   </si>
   <si>
     <t>黑寡妇</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1360,11 +1305,11 @@
       </rPr>
       <t>(目前第3个没用，但是需要填写)</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>英雄是否开放？</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1380,7 +1325,7 @@
       </rPr>
       <t>pen</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1396,39 +1341,39 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>灭霸</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>hero_name127</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>hero_des127</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>des1_127</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>head_127</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>hero_127</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>英雄官方评价</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1501,14 +1446,10 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>4|2|3|5</t>
-  </si>
-  <si>
-    <t>attributel4</t>
-    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1524,12 +1465,12 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>官方评价4维数值：从左到右
 生存，物理，能量，难度</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1547,7 +1488,7 @@
       </rPr>
       <t>（目前无用）</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1565,7 +1506,7 @@
       </rPr>
       <t>（目前无用）</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1583,7 +1524,7 @@
       </rPr>
       <t>（目前无用）</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1601,18 +1542,14 @@
       </rPr>
       <t>（目前无用）</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">C </t>
   </si>
   <si>
-    <t>vector&lt;int&gt;</t>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
     <t>is_atk1_random</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1631,7 +1568,7 @@
       </rPr>
       <t>"0"</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1657,27 +1594,27 @@
       </rPr>
       <t>0101</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>105010101|105020101|105040101</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>109010101|109020101|109040101</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>110010101|110020101|110100101</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>104010101|104020101|104100101</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>127010101|127020101|127040101</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1693,19 +1630,19 @@
       </rPr>
       <t>|109000002</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>hero_name322</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>hero_des322</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>head_322</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1721,15 +1658,15 @@
       </rPr>
       <t>23</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>巫师</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>长枪兵</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1745,7 +1682,7 @@
       </rPr>
       <t>21</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1761,7 +1698,7 @@
       </rPr>
       <t>21</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1777,7 +1714,7 @@
       </rPr>
       <t>21</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1793,15 +1730,15 @@
       </rPr>
       <t>21</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>hero_322</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>弓箭手</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1817,7 +1754,7 @@
       </rPr>
       <t>323</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1833,7 +1770,7 @@
       </rPr>
       <t>23</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1849,7 +1786,7 @@
       </rPr>
       <t>23</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1865,35 +1802,140 @@
       </rPr>
       <t>|321020101</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>322000101|322010101</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>323010101|323020101|323030101|323040101</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_name304</t>
+  </si>
+  <si>
+    <t>hero_des304</t>
+  </si>
+  <si>
+    <t>head_304</t>
+  </si>
+  <si>
+    <t>hero_304</t>
+  </si>
+  <si>
+    <t>九头蛇_双棍</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>九头蛇_枪兵</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>九头蛇_喷火兵</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[100]</t>
+    </r>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributel4</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;32</t>
+    </r>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;int&gt;;4</t>
+    </r>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vector&lt;int&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;10</t>
+    </r>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;int&gt;;5</t>
+    </r>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="57">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2359,180 +2401,156 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2544,13 +2562,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2571,16 +2583,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2595,19 +2607,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2616,10 +2622,10 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2664,38 +2670,233 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="186">
+  <dxfs count="198">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4684,16 +4885,16 @@
   <dimension ref="A1:AK43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="122" customWidth="1"/>
     <col min="3" max="3" width="14" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.5" style="4" customWidth="1"/>
@@ -4705,7 +4906,7 @@
     <col min="15" max="15" width="10.25" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.875" style="89" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.875" style="77" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.5" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.5" style="4" customWidth="1"/>
     <col min="21" max="21" width="46.875" style="4" bestFit="1" customWidth="1"/>
@@ -4727,476 +4928,478 @@
     <col min="38" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="6" customFormat="1" ht="85.5">
+    <row r="1" spans="1:37" s="6" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="S1" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE1" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="75" t="s">
+      <c r="AF1" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG1" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="I1" s="23" t="s">
+      <c r="AH1" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI1" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ1" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK1" s="64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="W2" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="127" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="127" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="127" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="127" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="127" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="127" t="s">
+        <v>221</v>
+      </c>
+      <c r="L3" s="127" t="s">
+        <v>221</v>
+      </c>
+      <c r="M3" s="127" t="s">
+        <v>221</v>
+      </c>
+      <c r="N3" s="127" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="127" t="s">
+        <v>223</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="127" t="s">
+        <v>224</v>
+      </c>
+      <c r="T3" s="127" t="s">
+        <v>224</v>
+      </c>
+      <c r="U3" s="127" t="s">
+        <v>225</v>
+      </c>
+      <c r="V3" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="W3" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK3" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="125" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="110"/>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="126" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="49" t="s">
+      <c r="M4" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="S4" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="T4" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="U4" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="W4" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="X4" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="Q1" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="96" t="s">
-        <v>194</v>
-      </c>
-      <c r="S1" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="T1" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="U1" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="V1" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="W1" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA1" s="6" t="s">
+      <c r="Y4" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z4" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB4" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD1" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE1" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF1" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG1" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH1" s="80" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI1" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="AJ1" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK1" s="74" t="s">
-        <v>145</v>
+      <c r="AD4" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE4" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK4" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="88" t="s">
-        <v>191</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="W2" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ2" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK2" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" s="2" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="T3" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="W3" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK3" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" s="3" customFormat="1" ht="14.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="H4" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="95" t="s">
-        <v>193</v>
-      </c>
-      <c r="S4" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="T4" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="U4" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="W4" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="X4" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y4" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z4" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB4" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD4" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE4" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH4" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ4" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK4" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" ht="15.95" customHeight="1">
+    <row r="5" spans="1:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>102</v>
       </c>
-      <c r="B5" s="64" t="s">
-        <v>169</v>
+      <c r="B5" s="111" t="s">
+        <v>163</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E5" s="14">
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="H5" s="77" t="s">
-        <v>182</v>
+        <v>160</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>176</v>
       </c>
       <c r="I5" s="4">
         <v>2</v>
@@ -5205,17 +5408,17 @@
         <v>2</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L5" s="4" t="str">
         <f>"avatar_"&amp;A5</f>
         <v>avatar_102</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>168</v>
       </c>
       <c r="O5" s="4">
         <v>1200</v>
@@ -5232,13 +5435,13 @@
       <c r="T5" s="4">
         <v>102900101</v>
       </c>
-      <c r="U5" s="98" t="s">
-        <v>195</v>
-      </c>
-      <c r="V5" s="43">
+      <c r="U5" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="V5" s="41">
         <v>102200101</v>
       </c>
-      <c r="W5" s="43">
+      <c r="W5" s="41">
         <v>50000</v>
       </c>
       <c r="X5" s="4">
@@ -5272,327 +5475,327 @@
         <v>102030101</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="81" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="81">
+    <row r="6" spans="1:37" s="70" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="70">
         <v>105</v>
       </c>
-      <c r="B6" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="83">
+      <c r="B6" s="112" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="71">
         <v>1</v>
       </c>
-      <c r="F6" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="84" t="s">
-        <v>182</v>
-      </c>
-      <c r="I6" s="81">
+      <c r="F6" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="70">
         <v>2</v>
       </c>
-      <c r="J6" s="81">
+      <c r="J6" s="70">
         <v>2</v>
       </c>
-      <c r="K6" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="81" t="str">
+      <c r="K6" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="70" t="str">
         <f>"avatar_"&amp;A6</f>
         <v>avatar_105</v>
       </c>
-      <c r="M6" s="85" t="s">
-        <v>162</v>
-      </c>
-      <c r="N6" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="81">
+      <c r="M6" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="N6" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="70">
         <v>1200</v>
       </c>
-      <c r="P6" s="81">
+      <c r="P6" s="70">
         <v>500</v>
       </c>
-      <c r="Q6" s="81">
+      <c r="Q6" s="70">
         <v>105000001</v>
       </c>
-      <c r="R6" s="90">
+      <c r="R6" s="78">
         <v>1</v>
       </c>
-      <c r="T6" s="81">
+      <c r="T6" s="70">
         <v>105900101</v>
       </c>
-      <c r="U6" s="99" t="s">
-        <v>196</v>
-      </c>
-      <c r="V6" s="86">
+      <c r="U6" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="V6" s="74">
         <v>105050101</v>
       </c>
-      <c r="W6" s="86">
+      <c r="W6" s="74">
         <v>50000</v>
       </c>
-      <c r="X6" s="81">
+      <c r="X6" s="70">
         <v>1</v>
       </c>
-      <c r="Y6" s="81">
+      <c r="Y6" s="70">
         <v>1</v>
       </c>
-      <c r="Z6" s="81">
+      <c r="Z6" s="70">
         <v>100</v>
       </c>
-      <c r="AA6" s="81">
+      <c r="AA6" s="70">
         <v>705</v>
       </c>
-      <c r="AB6" s="81">
+      <c r="AB6" s="70">
         <v>2</v>
       </c>
-      <c r="AC6" s="81">
+      <c r="AC6" s="70">
         <v>6</v>
       </c>
-      <c r="AD6" s="81">
+      <c r="AD6" s="70">
         <v>11105</v>
       </c>
-      <c r="AE6" s="81">
+      <c r="AE6" s="70">
         <v>20</v>
       </c>
-      <c r="AF6" s="81">
+      <c r="AF6" s="70">
         <v>1000</v>
       </c>
-      <c r="AJ6" s="81">
+      <c r="AJ6" s="70">
         <v>105030101</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="81" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="81">
+    <row r="7" spans="1:37" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="70">
         <v>109</v>
       </c>
-      <c r="B7" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="81">
+      <c r="B7" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="70">
         <v>1</v>
       </c>
-      <c r="F7" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="84" t="s">
-        <v>182</v>
-      </c>
-      <c r="I7" s="81">
+      <c r="F7" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="70">
         <v>1</v>
       </c>
-      <c r="J7" s="81">
+      <c r="J7" s="70">
         <v>2</v>
       </c>
-      <c r="K7" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="81" t="str">
+      <c r="K7" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="70" t="str">
         <f>"avatar_"&amp;A7</f>
         <v>avatar_109</v>
       </c>
-      <c r="M7" s="85" t="s">
-        <v>161</v>
-      </c>
-      <c r="N7" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="81">
+      <c r="M7" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="70">
         <v>1200</v>
       </c>
-      <c r="P7" s="81">
+      <c r="P7" s="70">
         <v>500</v>
       </c>
-      <c r="Q7" s="109">
+      <c r="Q7" s="93">
         <v>109000001</v>
       </c>
-      <c r="R7" s="110">
+      <c r="R7" s="94">
         <v>1</v>
       </c>
-      <c r="S7" s="99" t="s">
-        <v>201</v>
-      </c>
-      <c r="T7" s="102">
+      <c r="S7" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="T7" s="90">
         <v>109000000</v>
       </c>
-      <c r="U7" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="V7" s="103">
+      <c r="U7" s="87" t="s">
+        <v>189</v>
+      </c>
+      <c r="V7" s="91">
         <v>109070101</v>
       </c>
-      <c r="W7" s="103">
+      <c r="W7" s="91">
         <v>50000</v>
       </c>
-      <c r="X7" s="81">
+      <c r="X7" s="70">
         <v>1</v>
       </c>
-      <c r="Y7" s="81">
+      <c r="Y7" s="70">
         <v>1</v>
       </c>
-      <c r="Z7" s="81">
+      <c r="Z7" s="70">
         <v>100</v>
       </c>
-      <c r="AA7" s="81">
+      <c r="AA7" s="70">
         <v>705</v>
       </c>
-      <c r="AB7" s="81">
+      <c r="AB7" s="70">
         <v>1</v>
       </c>
-      <c r="AC7" s="81">
+      <c r="AC7" s="70">
         <v>6</v>
       </c>
-      <c r="AD7" s="81">
+      <c r="AD7" s="70">
         <v>11109</v>
       </c>
-      <c r="AE7" s="81">
+      <c r="AE7" s="70">
         <v>10</v>
       </c>
-      <c r="AF7" s="81">
+      <c r="AF7" s="70">
         <v>1000</v>
       </c>
-      <c r="AJ7" s="81">
+      <c r="AJ7" s="70">
         <v>109010201</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="81" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A8" s="81">
+    <row r="8" spans="1:37" s="70" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="70">
         <v>110</v>
       </c>
-      <c r="B8" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="87">
+      <c r="B8" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="75">
         <v>1</v>
       </c>
-      <c r="F8" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="84" t="s">
-        <v>182</v>
-      </c>
-      <c r="I8" s="81">
+      <c r="F8" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8" s="70">
         <v>3</v>
       </c>
-      <c r="J8" s="81">
+      <c r="J8" s="70">
         <v>2</v>
       </c>
-      <c r="K8" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="81" t="str">
+      <c r="K8" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="70" t="str">
         <f>"avatar_"&amp;A8</f>
         <v>avatar_110</v>
       </c>
-      <c r="M8" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="N8" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" s="81">
+      <c r="M8" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="N8" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="70">
         <v>1200</v>
       </c>
-      <c r="P8" s="81">
+      <c r="P8" s="70">
         <v>500</v>
       </c>
-      <c r="Q8" s="101">
+      <c r="Q8" s="89">
         <v>110000001</v>
       </c>
-      <c r="R8" s="90">
+      <c r="R8" s="78">
         <v>1</v>
       </c>
-      <c r="T8" s="81">
+      <c r="T8" s="70">
         <v>110900101</v>
       </c>
-      <c r="U8" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="V8" s="86">
+      <c r="U8" s="87" t="s">
+        <v>190</v>
+      </c>
+      <c r="V8" s="74">
         <v>110050101</v>
       </c>
-      <c r="W8" s="86">
+      <c r="W8" s="74">
         <v>50000</v>
       </c>
-      <c r="X8" s="81">
+      <c r="X8" s="70">
         <v>1</v>
       </c>
-      <c r="Y8" s="81">
+      <c r="Y8" s="70">
         <v>1</v>
       </c>
-      <c r="Z8" s="81">
+      <c r="Z8" s="70">
         <v>100</v>
       </c>
-      <c r="AA8" s="81">
+      <c r="AA8" s="70">
         <v>705</v>
       </c>
-      <c r="AB8" s="81">
+      <c r="AB8" s="70">
         <v>1</v>
       </c>
-      <c r="AC8" s="81">
+      <c r="AC8" s="70">
         <v>6</v>
       </c>
-      <c r="AD8" s="81">
+      <c r="AD8" s="70">
         <v>11110</v>
       </c>
-      <c r="AE8" s="81">
+      <c r="AE8" s="70">
         <v>10</v>
       </c>
-      <c r="AF8" s="81">
+      <c r="AF8" s="70">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="15.95" customHeight="1">
+    <row r="9" spans="1:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>104</v>
       </c>
-      <c r="B9" s="51" t="s">
-        <v>139</v>
+      <c r="B9" s="113" t="s">
+        <v>134</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="77" t="s">
-        <v>182</v>
+        <v>110</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>176</v>
       </c>
       <c r="I9" s="4">
         <v>3</v>
@@ -5601,17 +5804,17 @@
         <v>2</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L9" s="4" t="str">
         <f t="shared" ref="L9:L12" si="0">"avatar_"&amp;A9</f>
         <v>avatar_104</v>
       </c>
-      <c r="M9" s="29" t="s">
-        <v>87</v>
+      <c r="M9" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O9" s="4">
         <v>1200</v>
@@ -5622,19 +5825,19 @@
       <c r="Q9" s="4">
         <v>104000101</v>
       </c>
-      <c r="R9" s="90">
+      <c r="R9" s="78">
         <v>1</v>
       </c>
       <c r="T9" s="4">
         <v>104900101</v>
       </c>
-      <c r="U9" s="98" t="s">
-        <v>199</v>
-      </c>
-      <c r="V9" s="33">
+      <c r="U9" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="V9" s="32">
         <v>104200101</v>
       </c>
-      <c r="W9" s="33">
+      <c r="W9" s="32">
         <v>50000</v>
       </c>
       <c r="X9" s="4">
@@ -5665,30 +5868,30 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="15.95" customHeight="1">
+    <row r="10" spans="1:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>103</v>
       </c>
-      <c r="B10" s="51" t="s">
-        <v>140</v>
+      <c r="B10" s="113" t="s">
+        <v>135</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="77" t="s">
-        <v>182</v>
+        <v>111</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>176</v>
       </c>
       <c r="I10" s="4">
         <v>3</v>
@@ -5697,17 +5900,17 @@
         <v>2</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>avatar_103</v>
       </c>
-      <c r="M10" s="29" t="s">
-        <v>87</v>
+      <c r="M10" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O10" s="4">
         <v>1200</v>
@@ -5751,30 +5954,30 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>127</v>
       </c>
-      <c r="B11" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>177</v>
+      <c r="B11" s="114" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>171</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="70" t="s">
-        <v>178</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="77" t="s">
-        <v>182</v>
+      <c r="F11" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>176</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
@@ -5782,18 +5985,18 @@
       <c r="J11" s="4">
         <v>3</v>
       </c>
-      <c r="K11" s="70" t="s">
-        <v>179</v>
+      <c r="K11" s="60" t="s">
+        <v>173</v>
       </c>
       <c r="L11" s="4" t="str">
         <f>"avatar_"&amp;A11</f>
         <v>avatar_127</v>
       </c>
-      <c r="M11" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="N11" s="70" t="s">
-        <v>180</v>
+      <c r="M11" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" s="60" t="s">
+        <v>174</v>
       </c>
       <c r="O11" s="4">
         <v>1200</v>
@@ -5801,25 +6004,25 @@
       <c r="P11" s="4">
         <v>750</v>
       </c>
-      <c r="Q11" s="104">
+      <c r="Q11" s="92">
         <v>127000001</v>
       </c>
-      <c r="R11" s="91">
+      <c r="R11" s="79">
         <v>1</v>
       </c>
-      <c r="S11" s="97">
+      <c r="S11" s="85">
         <v>127900101</v>
       </c>
-      <c r="T11" s="71">
+      <c r="T11" s="61">
         <v>127900101</v>
       </c>
-      <c r="U11" s="100" t="s">
-        <v>200</v>
-      </c>
-      <c r="V11" s="72">
+      <c r="U11" s="88" t="s">
+        <v>192</v>
+      </c>
+      <c r="V11" s="62">
         <v>127070101</v>
       </c>
-      <c r="W11" s="34">
+      <c r="W11" s="33">
         <v>7500</v>
       </c>
       <c r="X11" s="4">
@@ -5850,15 +6053,16 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="9" customFormat="1" ht="15.95" customHeight="1">
+    <row r="12" spans="1:37" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>112</v>
       </c>
+      <c r="B12" s="115"/>
       <c r="C12" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
@@ -5870,17 +6074,17 @@
         <v>2</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>avatar_112</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O12" s="9">
         <v>1400</v>
@@ -5891,7 +6095,7 @@
       <c r="Q12" s="9">
         <v>112000101</v>
       </c>
-      <c r="R12" s="92"/>
+      <c r="R12" s="80"/>
       <c r="W12" s="9">
         <v>0</v>
       </c>
@@ -5914,7 +6118,7 @@
         <v>6</v>
       </c>
       <c r="AD12" s="9" t="str">
-        <f t="shared" ref="AD12:AD21" si="1">"11"&amp;A12</f>
+        <f t="shared" ref="AD12:AD22" si="1">"11"&amp;A12</f>
         <v>11112</v>
       </c>
       <c r="AE12" s="9">
@@ -5924,21 +6128,22 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="9" customFormat="1" ht="15.95" customHeight="1">
+    <row r="13" spans="1:37" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>503</v>
       </c>
+      <c r="B13" s="115"/>
       <c r="C13" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E13" s="9">
         <v>0</v>
       </c>
-      <c r="M13" s="32" t="s">
-        <v>86</v>
+      <c r="M13" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="O13" s="9">
         <v>1000</v>
@@ -5949,7 +6154,7 @@
       <c r="Q13" s="9">
         <v>90211</v>
       </c>
-      <c r="R13" s="92"/>
+      <c r="R13" s="80"/>
       <c r="W13" s="9">
         <v>0</v>
       </c>
@@ -5961,23 +6166,24 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="9" customFormat="1" ht="15.95" customHeight="1">
+    <row r="14" spans="1:37" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>505</v>
       </c>
+      <c r="B14" s="115"/>
       <c r="C14" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E14" s="9">
         <v>0</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="M14" s="32" t="s">
-        <v>86</v>
+      <c r="M14" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="O14" s="9">
         <v>1000</v>
@@ -5988,7 +6194,7 @@
       <c r="Q14" s="9">
         <v>90111</v>
       </c>
-      <c r="R14" s="92"/>
+      <c r="R14" s="80"/>
       <c r="W14" s="9">
         <v>0</v>
       </c>
@@ -6000,61 +6206,61 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="21" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A15" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>82</v>
+    <row r="15" spans="1:37" s="20" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="116"/>
+      <c r="C15" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="E15" s="9">
         <v>0</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="I15" s="21">
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" s="20">
         <v>1</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="20">
         <v>1</v>
       </c>
-      <c r="K15" s="21" t="s">
-        <v>58</v>
+      <c r="K15" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="L15" s="9" t="str">
         <f t="shared" ref="L15" si="2">"avatar_"&amp;A15</f>
         <v>avatar_68</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="23">
+        <v>1000</v>
+      </c>
+      <c r="P15" s="20">
+        <v>500</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" s="81"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="N15" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="O15" s="24">
-        <v>1000</v>
-      </c>
-      <c r="P15" s="21">
-        <v>500</v>
-      </c>
-      <c r="Q15" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="R15" s="93"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35">
+      <c r="V15" s="34"/>
+      <c r="W15" s="34">
         <v>0</v>
       </c>
       <c r="AD15" s="9" t="str">
@@ -6064,30 +6270,31 @@
       <c r="AF15" s="4">
         <v>1000</v>
       </c>
-      <c r="AJ15" s="22">
+      <c r="AJ15" s="21">
         <v>6801</v>
       </c>
-      <c r="AK15" s="22">
+      <c r="AK15" s="21">
         <v>6801</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="9" customFormat="1" ht="15.95" customHeight="1">
+    <row r="16" spans="1:37" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>123</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>83</v>
+      <c r="B16" s="115"/>
+      <c r="C16" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="E16" s="9">
         <v>0</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="35" t="s">
-        <v>183</v>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="34" t="s">
+        <v>177</v>
       </c>
       <c r="I16" s="9">
         <v>3</v>
@@ -6096,17 +6303,17 @@
         <v>1</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L16" s="9" t="str">
         <f t="shared" ref="L16" si="3">"avatar_"&amp;A16</f>
         <v>avatar_123</v>
       </c>
-      <c r="M16" s="32" t="s">
-        <v>86</v>
+      <c r="M16" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O16" s="9">
         <v>1900</v>
@@ -6114,17 +6321,17 @@
       <c r="P16" s="9">
         <v>500</v>
       </c>
-      <c r="Q16" s="40">
+      <c r="Q16" s="38">
         <v>123000101</v>
       </c>
-      <c r="R16" s="92"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40">
+      <c r="R16" s="80"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38">
         <v>0</v>
       </c>
       <c r="AD16" s="9" t="str">
@@ -6134,1008 +6341,1092 @@
       <c r="AF16" s="4">
         <v>1000</v>
       </c>
-      <c r="AJ16" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK16" s="38">
+      <c r="AJ16" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK16" s="37">
         <v>1231101</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="9" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A17" s="9">
+    <row r="17" spans="1:37" s="95" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="95">
         <v>301</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="B17" s="117" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="95">
         <v>0</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="I17" s="95">
         <v>3</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="95">
         <v>2</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="9" t="str">
+      <c r="K17" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="95" t="str">
         <f t="shared" ref="L17" si="4">"avatar_"&amp;A17</f>
         <v>avatar_301</v>
       </c>
-      <c r="M17" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O17" s="9">
+      <c r="M17" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="N17" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="95">
         <v>1000</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="95">
         <v>500</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="Q17" s="100">
         <v>301000101</v>
       </c>
-      <c r="R17" s="92"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="39">
+      <c r="R17" s="101"/>
+      <c r="S17" s="100"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="102">
         <v>301010101</v>
       </c>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39">
+      <c r="V17" s="102"/>
+      <c r="W17" s="102">
         <v>0</v>
       </c>
-      <c r="AD17" s="9" t="str">
+      <c r="AD17" s="95" t="str">
         <f t="shared" si="1"/>
         <v>11301</v>
       </c>
-      <c r="AF17" s="4">
+      <c r="AF17" s="95">
         <v>1000</v>
       </c>
-      <c r="AJ17" s="38">
+      <c r="AJ17" s="100">
         <v>301000101</v>
       </c>
-      <c r="AK17" s="38">
+      <c r="AK17" s="100">
         <v>301000101</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="9" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A18" s="9">
+    <row r="18" spans="1:37" s="95" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="95">
         <v>302</v>
       </c>
-      <c r="B18" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="B18" s="117" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="95">
         <v>0</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="95">
         <v>3</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="95">
         <v>2</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="9" t="str">
+      <c r="K18" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="95" t="str">
         <f t="shared" ref="L18" si="5">"avatar_"&amp;A18</f>
         <v>avatar_302</v>
       </c>
-      <c r="M18" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="O18" s="9">
+      <c r="M18" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" s="95">
         <v>1000</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="95">
         <v>500</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="Q18" s="100">
         <v>302000101</v>
       </c>
-      <c r="R18" s="92"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="39">
+      <c r="R18" s="101"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="102">
         <v>302010101</v>
       </c>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39">
+      <c r="V18" s="102"/>
+      <c r="W18" s="102">
         <v>0</v>
       </c>
-      <c r="AD18" s="9" t="str">
+      <c r="AD18" s="95" t="str">
         <f t="shared" si="1"/>
         <v>11302</v>
       </c>
-      <c r="AF18" s="4">
+      <c r="AF18" s="95">
         <v>1000</v>
       </c>
-      <c r="AJ18" s="38">
+      <c r="AJ18" s="100">
         <v>302000101</v>
       </c>
-      <c r="AK18" s="38">
+      <c r="AK18" s="100">
         <v>302000101</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="9" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A19" s="9">
+    <row r="19" spans="1:37" s="95" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="95">
         <v>303</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="37" t="s">
+      <c r="B19" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="9">
+      <c r="C19" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="95">
         <v>0</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" s="95">
         <v>3</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="95">
         <v>2</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" s="9" t="str">
-        <f t="shared" ref="L19:L21" si="6">"avatar_"&amp;A19</f>
+      <c r="K19" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="95" t="str">
+        <f t="shared" ref="L19:L22" si="6">"avatar_"&amp;A19</f>
         <v>avatar_303</v>
       </c>
-      <c r="M19" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="O19" s="9">
+      <c r="M19" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="O19" s="95">
         <v>1000</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="95">
         <v>500</v>
       </c>
-      <c r="Q19" s="38">
+      <c r="Q19" s="100">
         <v>303000101</v>
       </c>
-      <c r="R19" s="92"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="39">
+      <c r="R19" s="101"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="102">
         <v>303010101</v>
       </c>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39">
+      <c r="V19" s="102"/>
+      <c r="W19" s="102">
         <v>0</v>
       </c>
-      <c r="AD19" s="9" t="str">
+      <c r="AD19" s="95" t="str">
         <f t="shared" si="1"/>
         <v>11303</v>
       </c>
-      <c r="AF19" s="4">
+      <c r="AF19" s="95">
         <v>500</v>
       </c>
-      <c r="AJ19" s="38">
+      <c r="AJ19" s="100">
         <v>303000101</v>
       </c>
-      <c r="AK19" s="38">
+      <c r="AK19" s="100">
         <v>303000101</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="9" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A20" s="9">
+    <row r="20" spans="1:37" s="123" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="123">
+        <v>304</v>
+      </c>
+      <c r="B20" s="121" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="123" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="123" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="123">
+        <v>0</v>
+      </c>
+      <c r="H20" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" s="123">
+        <v>1</v>
+      </c>
+      <c r="J20" s="123">
+        <v>2</v>
+      </c>
+      <c r="K20" s="123" t="s">
+        <v>214</v>
+      </c>
+      <c r="L20" s="123" t="str">
+        <f t="shared" si="6"/>
+        <v>avatar_304</v>
+      </c>
+      <c r="M20" s="123" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" s="123" t="s">
+        <v>215</v>
+      </c>
+      <c r="O20" s="123">
+        <v>1000</v>
+      </c>
+      <c r="P20" s="123">
+        <v>500</v>
+      </c>
+      <c r="Q20" s="123">
+        <v>304000101</v>
+      </c>
+      <c r="U20" s="123">
+        <v>304010101</v>
+      </c>
+      <c r="W20" s="123">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="123" t="str">
+        <f>"11"&amp;A20</f>
+        <v>11304</v>
+      </c>
+      <c r="AF20" s="123">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" s="95" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="95">
         <v>997</v>
       </c>
-      <c r="B20" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="B21" s="119" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="95">
         <v>0</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="I20" s="9">
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="I21" s="95">
         <v>3</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J21" s="95">
         <v>2</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="9" t="str">
-        <f t="shared" ref="L20" si="7">"avatar_"&amp;A20</f>
+      <c r="K21" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" s="95" t="str">
+        <f t="shared" ref="L21" si="7">"avatar_"&amp;A21</f>
         <v>avatar_997</v>
       </c>
-      <c r="M20" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="O20" s="9">
+      <c r="M21" s="104" t="s">
+        <v>154</v>
+      </c>
+      <c r="N21" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="O21" s="95">
         <v>1000</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P21" s="95">
         <v>500</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q21" s="100">
         <v>302000101</v>
       </c>
-      <c r="R20" s="92"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="39">
+      <c r="R21" s="101"/>
+      <c r="S21" s="100"/>
+      <c r="T21" s="100"/>
+      <c r="U21" s="102">
         <v>302010101</v>
       </c>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39">
+      <c r="V21" s="102"/>
+      <c r="W21" s="102">
         <v>0</v>
       </c>
-      <c r="AD20" s="9" t="str">
+      <c r="AD21" s="95" t="str">
         <f t="shared" si="1"/>
         <v>11997</v>
       </c>
-      <c r="AF20" s="4">
+      <c r="AF21" s="95">
         <v>1000</v>
       </c>
-      <c r="AJ20" s="38">
+      <c r="AJ21" s="100">
         <v>302000101</v>
       </c>
-      <c r="AK20" s="38">
+      <c r="AK21" s="100">
         <v>302000101</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="9" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A21" s="9">
+    <row r="22" spans="1:37" s="95" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="95">
         <v>998</v>
       </c>
-      <c r="B21" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="B22" s="119" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="95">
         <v>0</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="I21" s="9">
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" s="95">
         <v>3</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J22" s="95">
         <v>2</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L21" s="9" t="str">
+      <c r="K22" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="95" t="str">
         <f t="shared" si="6"/>
         <v>avatar_998</v>
       </c>
-      <c r="M21" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="O21" s="9">
+      <c r="M22" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="N22" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="O22" s="95">
         <v>1000</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P22" s="95">
         <v>500</v>
       </c>
-      <c r="Q21" s="38">
+      <c r="Q22" s="100">
         <v>302000101</v>
       </c>
-      <c r="R21" s="92"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="39">
+      <c r="R22" s="101"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="102">
         <v>302010101</v>
       </c>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39">
+      <c r="V22" s="102"/>
+      <c r="W22" s="102">
         <v>0</v>
       </c>
-      <c r="AD21" s="9" t="str">
+      <c r="AD22" s="95" t="str">
         <f t="shared" si="1"/>
         <v>11998</v>
       </c>
-      <c r="AF21" s="4">
+      <c r="AF22" s="95">
         <v>1000</v>
       </c>
-      <c r="AJ21" s="38">
+      <c r="AJ22" s="100">
         <v>302000101</v>
       </c>
-      <c r="AK21" s="38">
+      <c r="AK22" s="100">
         <v>302000101</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="9" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A22" s="9">
+    <row r="23" spans="1:37" s="95" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="95">
         <v>999</v>
       </c>
-      <c r="B22" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="B23" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="104" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="95">
         <v>0</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" s="95">
         <v>3</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J23" s="95">
         <v>2</v>
       </c>
-      <c r="K22" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="L22" s="9" t="str">
-        <f t="shared" ref="L22:L25" si="8">"avatar_"&amp;A22</f>
+      <c r="K23" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="95" t="str">
+        <f t="shared" ref="L23:L26" si="8">"avatar_"&amp;A23</f>
         <v>avatar_999</v>
       </c>
-      <c r="M22" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="O22" s="9">
+      <c r="M23" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="N23" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="O23" s="95">
         <v>1000</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P23" s="95">
         <v>500</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q23" s="100">
         <v>303000101</v>
       </c>
-      <c r="R22" s="92"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="39">
+      <c r="R23" s="101"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="102">
         <v>303010101</v>
       </c>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39">
+      <c r="V23" s="102"/>
+      <c r="W23" s="102">
         <v>0</v>
       </c>
-      <c r="AD22" s="9" t="str">
-        <f>"11"&amp;A22</f>
+      <c r="AD23" s="95" t="str">
+        <f>"11"&amp;A23</f>
         <v>11999</v>
       </c>
-      <c r="AF22" s="4">
+      <c r="AF23" s="95">
         <v>500</v>
       </c>
-      <c r="AJ22" s="38">
+      <c r="AJ23" s="100">
         <v>303000101</v>
       </c>
-      <c r="AK22" s="38">
+      <c r="AK23" s="100">
         <v>303000101</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="105" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A23" s="105">
+    <row r="24" spans="1:37" s="105" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="105">
         <v>321</v>
       </c>
-      <c r="B23" s="105" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="105" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" s="105" t="s">
-        <v>209</v>
-      </c>
-      <c r="E23" s="105">
+      <c r="B24" s="120" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="105">
         <v>0</v>
       </c>
-      <c r="H23" s="106" t="s">
-        <v>183</v>
-      </c>
-      <c r="I23" s="105">
+      <c r="H24" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" s="105">
         <v>1</v>
       </c>
-      <c r="J23" s="105">
+      <c r="J24" s="105">
         <v>2</v>
       </c>
-      <c r="K23" s="105" t="s">
-        <v>210</v>
-      </c>
-      <c r="L23" s="105" t="str">
+      <c r="K24" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" s="105" t="str">
         <f t="shared" si="8"/>
         <v>avatar_321</v>
       </c>
-      <c r="M23" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="N23" s="105" t="s">
-        <v>211</v>
-      </c>
-      <c r="O23" s="105">
+      <c r="M24" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" s="105" t="s">
+        <v>203</v>
+      </c>
+      <c r="O24" s="105">
         <v>1000</v>
       </c>
-      <c r="P23" s="105">
+      <c r="P24" s="105">
         <v>500</v>
       </c>
-      <c r="Q23" s="105">
+      <c r="Q24" s="105">
         <v>321000101</v>
       </c>
-      <c r="U23" s="105" t="s">
-        <v>217</v>
-      </c>
-      <c r="W23" s="105">
+      <c r="U24" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="W24" s="105">
         <v>0</v>
       </c>
-      <c r="AD23" s="105" t="str">
-        <f t="shared" ref="AD23:AD24" si="9">"11"&amp;A23</f>
+      <c r="AD24" s="105" t="str">
+        <f t="shared" ref="AD24:AD25" si="9">"11"&amp;A24</f>
         <v>11321</v>
       </c>
-      <c r="AF23" s="105">
+      <c r="AF24" s="105">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="107" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A24" s="107">
+    <row r="25" spans="1:37" s="105" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="105">
         <v>322</v>
       </c>
-      <c r="B24" s="107" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="107" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" s="107" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" s="107">
+      <c r="B25" s="120" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="105">
         <v>0</v>
       </c>
-      <c r="H24" s="108" t="s">
-        <v>183</v>
-      </c>
-      <c r="I24" s="107">
+      <c r="H25" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="I25" s="105">
         <v>3</v>
       </c>
-      <c r="J24" s="107">
+      <c r="J25" s="105">
         <v>2</v>
       </c>
-      <c r="K24" s="107" t="s">
-        <v>204</v>
-      </c>
-      <c r="L24" s="107" t="str">
+      <c r="K25" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" s="105" t="str">
         <f t="shared" si="8"/>
         <v>avatar_322</v>
       </c>
-      <c r="M24" s="107" t="s">
-        <v>86</v>
-      </c>
-      <c r="N24" s="107" t="s">
-        <v>212</v>
-      </c>
-      <c r="O24" s="107">
+      <c r="M25" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="N25" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="O25" s="105">
         <v>1000</v>
       </c>
-      <c r="P24" s="107">
+      <c r="P25" s="105">
         <v>500</v>
       </c>
-      <c r="U24" s="107" t="s">
-        <v>218</v>
-      </c>
-      <c r="W24" s="107">
+      <c r="U25" s="105" t="s">
+        <v>210</v>
+      </c>
+      <c r="W25" s="105">
         <v>0</v>
       </c>
-      <c r="AD24" s="107" t="str">
+      <c r="AD25" s="105" t="str">
         <f t="shared" si="9"/>
         <v>11322</v>
       </c>
-      <c r="AF24" s="107">
+      <c r="AF25" s="105">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="107" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A25" s="107">
+    <row r="26" spans="1:37" s="105" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="105">
         <v>323</v>
       </c>
-      <c r="B25" s="107" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" s="107" t="s">
-        <v>215</v>
-      </c>
-      <c r="E25" s="107">
+      <c r="B26" s="120" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" s="105">
         <v>0</v>
       </c>
-      <c r="H25" s="108" t="s">
-        <v>183</v>
-      </c>
-      <c r="I25" s="107">
+      <c r="H26" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="I26" s="105">
         <v>2</v>
       </c>
-      <c r="J25" s="107">
+      <c r="J26" s="105">
         <v>2</v>
       </c>
-      <c r="K25" s="107" t="s">
-        <v>216</v>
-      </c>
-      <c r="L25" s="107" t="str">
+      <c r="K26" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" s="105" t="str">
         <f t="shared" si="8"/>
         <v>avatar_323</v>
       </c>
-      <c r="M25" s="107" t="s">
-        <v>86</v>
-      </c>
-      <c r="N25" s="107" t="s">
-        <v>205</v>
-      </c>
-      <c r="O25" s="107">
+      <c r="M26" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="N26" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="O26" s="105">
         <v>1000</v>
       </c>
-      <c r="P25" s="107">
+      <c r="P26" s="105">
         <v>500</v>
       </c>
-      <c r="Q25" s="107">
+      <c r="Q26" s="105">
         <v>323000101</v>
       </c>
-      <c r="U25" s="107" t="s">
-        <v>219</v>
-      </c>
-      <c r="W25" s="107">
+      <c r="U26" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="W26" s="105">
         <v>0</v>
       </c>
-      <c r="AD25" s="107" t="str">
-        <f>"11"&amp;A25</f>
+      <c r="AD26" s="105" t="str">
+        <f>"11"&amp;A26</f>
         <v>11323</v>
       </c>
-      <c r="AF25" s="107">
+      <c r="AF26" s="105">
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15.95" customHeight="1">
-      <c r="AK32" s="43"/>
+    <row r="32" spans="1:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK32" s="41"/>
     </row>
-    <row r="33" spans="37:37" ht="15.95" customHeight="1">
-      <c r="AK33" s="43"/>
+    <row r="33" spans="37:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK33" s="41"/>
     </row>
-    <row r="34" spans="37:37" ht="15.95" customHeight="1">
-      <c r="AK34" s="43"/>
+    <row r="34" spans="37:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK34" s="41"/>
     </row>
-    <row r="35" spans="37:37" ht="15.95" customHeight="1">
-      <c r="AK35" s="43"/>
+    <row r="35" spans="37:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK35" s="41"/>
     </row>
-    <row r="36" spans="37:37" ht="15.95" customHeight="1">
-      <c r="AK36" s="43"/>
+    <row r="36" spans="37:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK36" s="41"/>
     </row>
-    <row r="37" spans="37:37" ht="15.95" customHeight="1">
-      <c r="AK37" s="43"/>
+    <row r="37" spans="37:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK37" s="41"/>
     </row>
-    <row r="38" spans="37:37" ht="15.95" customHeight="1">
-      <c r="AK38" s="43"/>
+    <row r="38" spans="37:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK38" s="41"/>
     </row>
-    <row r="39" spans="37:37" ht="15.95" customHeight="1">
-      <c r="AK39" s="43"/>
+    <row r="39" spans="37:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK39" s="41"/>
     </row>
-    <row r="40" spans="37:37" ht="15.95" customHeight="1">
-      <c r="AK40" s="43"/>
+    <row r="40" spans="37:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK40" s="41"/>
     </row>
-    <row r="41" spans="37:37" ht="15.95" customHeight="1">
-      <c r="AK41" s="43"/>
+    <row r="41" spans="37:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK41" s="41"/>
     </row>
-    <row r="42" spans="37:37" ht="15.95" customHeight="1">
-      <c r="AK42" s="43"/>
+    <row r="42" spans="37:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK42" s="41"/>
     </row>
-    <row r="43" spans="37:37" ht="15.95" customHeight="1">
-      <c r="AK43" s="43"/>
+    <row r="43" spans="37:37" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK43" s="41"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="49" type="noConversion"/>
+  <phoneticPr fontId="48" type="noConversion"/>
   <conditionalFormatting sqref="S16:T16">
-    <cfRule type="duplicateValues" dxfId="185" priority="363"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="364"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="365"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="399"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="400"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="401"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ16:AK16">
-    <cfRule type="duplicateValues" dxfId="182" priority="360"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="361"/>
-    <cfRule type="duplicateValues" dxfId="180" priority="362"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="396"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="398"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:T17">
-    <cfRule type="duplicateValues" dxfId="179" priority="354"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="355"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="391"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ17:AK17">
-    <cfRule type="duplicateValues" dxfId="176" priority="348"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="349"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="350"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="384"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="385"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="386"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK39">
-    <cfRule type="duplicateValues" dxfId="173" priority="337"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="338"/>
-    <cfRule type="duplicateValues" dxfId="171" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK39">
-    <cfRule type="duplicateValues" dxfId="170" priority="336"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="372"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK40">
-    <cfRule type="duplicateValues" dxfId="169" priority="333"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="334"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="335"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="369"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="370"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK40">
-    <cfRule type="duplicateValues" dxfId="166" priority="332"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK41">
-    <cfRule type="duplicateValues" dxfId="165" priority="329"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="330"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="331"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="365"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="366"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK41">
-    <cfRule type="duplicateValues" dxfId="162" priority="328"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK42">
-    <cfRule type="duplicateValues" dxfId="161" priority="325"/>
-    <cfRule type="duplicateValues" dxfId="160" priority="326"/>
-    <cfRule type="duplicateValues" dxfId="159" priority="327"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="362"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="363"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK42">
-    <cfRule type="duplicateValues" dxfId="158" priority="324"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="360"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK43">
-    <cfRule type="duplicateValues" dxfId="157" priority="321"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="322"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="357"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="359"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK43">
-    <cfRule type="duplicateValues" dxfId="154" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK32">
-    <cfRule type="duplicateValues" dxfId="153" priority="317"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="318"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="353"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="354"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK32">
-    <cfRule type="duplicateValues" dxfId="150" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="352"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK36">
-    <cfRule type="duplicateValues" dxfId="149" priority="309"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="310"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="345"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="346"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="347"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK36">
-    <cfRule type="duplicateValues" dxfId="146" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK37">
-    <cfRule type="duplicateValues" dxfId="145" priority="305"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="306"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="342"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK37">
-    <cfRule type="duplicateValues" dxfId="142" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK38">
-    <cfRule type="duplicateValues" dxfId="141" priority="301"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="302"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="303"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="337"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK38">
-    <cfRule type="duplicateValues" dxfId="138" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="336"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK33:AK35">
-    <cfRule type="duplicateValues" dxfId="137" priority="340"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="341"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="342"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK33:AK35">
-    <cfRule type="duplicateValues" dxfId="134" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:W8">
-    <cfRule type="duplicateValues" dxfId="133" priority="296"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="297"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="332"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="333"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="334"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:W8">
-    <cfRule type="duplicateValues" dxfId="130" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="335"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:T18">
-    <cfRule type="duplicateValues" dxfId="129" priority="290"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="291"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="292"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="326"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="327"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="328"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ18:AK18">
-    <cfRule type="duplicateValues" dxfId="126" priority="287"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="288"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="289"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="324"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:T19">
-    <cfRule type="duplicateValues" dxfId="123" priority="281"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="282"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="317"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ19:AK19">
-    <cfRule type="duplicateValues" dxfId="120" priority="278"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="279"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6:W6">
-    <cfRule type="duplicateValues" dxfId="117" priority="274"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="275"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6:W6">
-    <cfRule type="duplicateValues" dxfId="114" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="313"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22:T22">
+    <cfRule type="duplicateValues" dxfId="125" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="306"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ22:AK22">
+    <cfRule type="duplicateValues" dxfId="122" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="303"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23:T23">
+    <cfRule type="duplicateValues" dxfId="119" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="297"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ23:AK23">
+    <cfRule type="duplicateValues" dxfId="116" priority="292"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="293"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S21:T21">
-    <cfRule type="duplicateValues" dxfId="113" priority="268"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="269"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ21:AK21">
-    <cfRule type="duplicateValues" dxfId="110" priority="265"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="266"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="267"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S22:T22">
-    <cfRule type="duplicateValues" dxfId="107" priority="259"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="260"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="261"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ22:AK22">
-    <cfRule type="duplicateValues" dxfId="104" priority="256"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="257"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="258"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S20:T20">
-    <cfRule type="duplicateValues" dxfId="101" priority="250"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="251"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="252"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ20:AK20">
-    <cfRule type="duplicateValues" dxfId="98" priority="247"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="248"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:F3 I3:Q3 S3:XFD3">
-    <cfRule type="cellIs" dxfId="95" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="217" operator="equal">
       <formula>"float"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:W5">
-    <cfRule type="duplicateValues" dxfId="94" priority="366"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="367"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="402"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="403"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:W5">
-    <cfRule type="duplicateValues" dxfId="91" priority="369"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="405"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="90" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="216" operator="equal">
       <formula>"float"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="89" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="215" operator="equal">
       <formula>"float"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="cellIs" dxfId="88" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="192" operator="equal">
       <formula>"float"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17">
-    <cfRule type="duplicateValues" dxfId="87" priority="370"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="371"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="372"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="406"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="408"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="duplicateValues" dxfId="84" priority="373"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="374"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="375"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="410"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="duplicateValues" dxfId="81" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18">
-    <cfRule type="duplicateValues" dxfId="80" priority="377"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="378"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="379"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="415"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19">
-    <cfRule type="duplicateValues" dxfId="77" priority="380"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="381"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="382"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="416"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="418"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22">
+    <cfRule type="duplicateValues" dxfId="86" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="420"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="421"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
+    <cfRule type="duplicateValues" dxfId="83" priority="422"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="423"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21">
-    <cfRule type="duplicateValues" dxfId="74" priority="383"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="384"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="385"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22">
-    <cfRule type="duplicateValues" dxfId="71" priority="386"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="387"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="388"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R20">
-    <cfRule type="duplicateValues" dxfId="68" priority="389"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="390"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="391"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="425"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="duplicateValues" dxfId="65" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="duplicateValues" dxfId="62" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="duplicateValues" dxfId="61" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="duplicateValues" dxfId="60" priority="392"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="393"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="394"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="428"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="429"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="430"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="duplicateValues" dxfId="57" priority="395"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="396"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="431"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="432"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="433"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="duplicateValues" dxfId="54" priority="398"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="434"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="duplicateValues" dxfId="53" priority="399"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="400"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="401"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="435"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="436"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="437"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="50" priority="402"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="403"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="439"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="440"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22">
+    <cfRule type="duplicateValues" dxfId="59" priority="441"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="443"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="duplicateValues" dxfId="56" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="445"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21">
-    <cfRule type="duplicateValues" dxfId="47" priority="405"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="406"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="407"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
-    <cfRule type="duplicateValues" dxfId="44" priority="408"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="409"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="410"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
-    <cfRule type="duplicateValues" dxfId="41" priority="411"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="412"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="413"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R23:S23">
-    <cfRule type="duplicateValues" dxfId="38" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL23:AM23">
-    <cfRule type="duplicateValues" dxfId="35" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T23">
-    <cfRule type="duplicateValues" dxfId="32" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
-    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="448"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="449"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24:S24">
+    <cfRule type="duplicateValues" dxfId="50" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL24:AM24">
+    <cfRule type="duplicateValues" dxfId="47" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T24">
+    <cfRule type="duplicateValues" dxfId="44" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24">
+    <cfRule type="duplicateValues" dxfId="41" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26:S26">
+    <cfRule type="duplicateValues" dxfId="38" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL26:AM26">
+    <cfRule type="duplicateValues" dxfId="35" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26">
+    <cfRule type="duplicateValues" dxfId="32" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25:S25">
-    <cfRule type="duplicateValues" dxfId="26" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL25:AM25">
-    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25">
-    <cfRule type="duplicateValues" dxfId="20" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q24:S24">
-    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL24:AM24">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T24">
-    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ23:AK23">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ24:AK24">
+    <cfRule type="duplicateValues" dxfId="20" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ26:AK26">
+    <cfRule type="duplicateValues" dxfId="17" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ25:AK25">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ24:AK24">
+    <cfRule type="duplicateValues" dxfId="14" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20:S20">
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL20:AM20">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20">
+    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ20:AK20">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
